--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H2">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I2">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J2">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.205419388815098</v>
+        <v>0.2078313333333333</v>
       </c>
       <c r="N2">
-        <v>0.205419388815098</v>
+        <v>0.623494</v>
       </c>
       <c r="O2">
-        <v>0.08816794801080281</v>
+        <v>0.08621557350328635</v>
       </c>
       <c r="P2">
-        <v>0.08816794801080281</v>
+        <v>0.112461889302165</v>
       </c>
       <c r="Q2">
-        <v>0.08080586921118249</v>
+        <v>0.1286690712377778</v>
       </c>
       <c r="R2">
-        <v>0.08080586921118249</v>
+        <v>1.15802164114</v>
       </c>
       <c r="S2">
-        <v>0.000491571003072947</v>
+        <v>0.0006836582716088646</v>
       </c>
       <c r="T2">
-        <v>0.000491571003072947</v>
+        <v>0.0008954766835459462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H3">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I3">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J3">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.478807154662754</v>
+        <v>0.498127</v>
       </c>
       <c r="N3">
-        <v>0.478807154662754</v>
+        <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.2055085674386124</v>
+        <v>0.206640184103479</v>
       </c>
       <c r="P3">
-        <v>0.2055085674386124</v>
+        <v>0.2695469573039334</v>
       </c>
       <c r="Q3">
-        <v>0.188348473531303</v>
+        <v>0.3083920861233334</v>
       </c>
       <c r="R3">
-        <v>0.188348473531303</v>
+        <v>2.77552877511</v>
       </c>
       <c r="S3">
-        <v>0.001145791128353189</v>
+        <v>0.001638581817283128</v>
       </c>
       <c r="T3">
-        <v>0.001145791128353189</v>
+        <v>0.002146264987047309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H4">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I4">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J4">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.64563814601145</v>
+        <v>0.016887</v>
       </c>
       <c r="N4">
-        <v>1.64563814601145</v>
+        <v>0.050661</v>
       </c>
       <c r="O4">
-        <v>0.7063234845505848</v>
+        <v>0.007005307459654767</v>
       </c>
       <c r="P4">
-        <v>0.7063234845505848</v>
+        <v>0.009137909545139137</v>
       </c>
       <c r="Q4">
-        <v>0.6473450318520296</v>
+        <v>0.01045479799</v>
       </c>
       <c r="R4">
-        <v>0.6473450318520296</v>
+        <v>0.09409318190999999</v>
       </c>
       <c r="S4">
-        <v>0.003938031355249056</v>
+        <v>5.554955091464663E-05</v>
       </c>
       <c r="T4">
-        <v>0.003938031355249056</v>
+        <v>7.276051456007786E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.7065116272673</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H5">
-        <v>69.7065116272673</v>
+        <v>1.85731</v>
       </c>
       <c r="I5">
-        <v>0.9879782854920413</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J5">
-        <v>0.9879782854920413</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.205419388815098</v>
+        <v>1.6877555</v>
       </c>
       <c r="N5">
-        <v>0.205419388815098</v>
+        <v>3.375511</v>
       </c>
       <c r="O5">
-        <v>0.08816794801080281</v>
+        <v>0.7001389349335798</v>
       </c>
       <c r="P5">
-        <v>0.08816794801080281</v>
+        <v>0.6088532438487625</v>
       </c>
       <c r="Q5">
-        <v>14.31906901490577</v>
+        <v>1.044895055901667</v>
       </c>
       <c r="R5">
-        <v>14.31906901490577</v>
+        <v>6.269370335410001</v>
       </c>
       <c r="S5">
-        <v>0.08710801811106439</v>
+        <v>0.005551848171891093</v>
       </c>
       <c r="T5">
-        <v>0.08710801811106439</v>
+        <v>0.004847987944635973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H6">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I6">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J6">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.478807154662754</v>
+        <v>0.2078313333333333</v>
       </c>
       <c r="N6">
-        <v>0.478807154662754</v>
+        <v>0.623494</v>
       </c>
       <c r="O6">
-        <v>0.2055085674386124</v>
+        <v>0.08621557350328635</v>
       </c>
       <c r="P6">
-        <v>0.2055085674386124</v>
+        <v>0.112461889302165</v>
       </c>
       <c r="Q6">
-        <v>33.37597649371803</v>
+        <v>15.89683586437044</v>
       </c>
       <c r="R6">
-        <v>33.37597649371803</v>
+        <v>143.071522779334</v>
       </c>
       <c r="S6">
-        <v>0.2030380021119259</v>
+        <v>0.08446476862338942</v>
       </c>
       <c r="T6">
-        <v>0.2030380021119259</v>
+        <v>0.1106345582645441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H7">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J7">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.64563814601145</v>
+        <v>0.498127</v>
       </c>
       <c r="N7">
-        <v>1.64563814601145</v>
+        <v>1.494381</v>
       </c>
       <c r="O7">
-        <v>0.7063234845505848</v>
+        <v>0.206640184103479</v>
       </c>
       <c r="P7">
-        <v>0.7063234845505848</v>
+        <v>0.2695469573039334</v>
       </c>
       <c r="Q7">
-        <v>114.7116945592217</v>
+        <v>38.10129604428234</v>
       </c>
       <c r="R7">
-        <v>114.7116945592217</v>
+        <v>342.911664398541</v>
       </c>
       <c r="S7">
-        <v>0.6978322652690511</v>
+        <v>0.2024438814169652</v>
       </c>
       <c r="T7">
-        <v>0.6978322652690511</v>
+        <v>0.2651672378786768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.454818246333632</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H8">
-        <v>0.454818246333632</v>
+        <v>229.467361</v>
       </c>
       <c r="I8">
-        <v>0.006446321021283539</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J8">
-        <v>0.006446321021283539</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.205419388815098</v>
+        <v>0.016887</v>
       </c>
       <c r="N8">
-        <v>0.205419388815098</v>
+        <v>0.050661</v>
       </c>
       <c r="O8">
-        <v>0.08816794801080281</v>
+        <v>0.007005307459654767</v>
       </c>
       <c r="P8">
-        <v>0.08816794801080281</v>
+        <v>0.009137909545139137</v>
       </c>
       <c r="Q8">
-        <v>0.09342848618380938</v>
+        <v>1.291671775069</v>
       </c>
       <c r="R8">
-        <v>0.09342848618380938</v>
+        <v>11.625045975621</v>
       </c>
       <c r="S8">
-        <v>0.0005683588966654724</v>
+        <v>0.006863048631148866</v>
       </c>
       <c r="T8">
-        <v>0.0005683588966654724</v>
+        <v>0.008989432707034981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.454818246333632</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H9">
-        <v>0.454818246333632</v>
+        <v>229.467361</v>
       </c>
       <c r="I9">
-        <v>0.006446321021283539</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J9">
-        <v>0.006446321021283539</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.478807154662754</v>
+        <v>1.6877555</v>
       </c>
       <c r="N9">
-        <v>0.478807154662754</v>
+        <v>3.375511</v>
       </c>
       <c r="O9">
-        <v>0.2055085674386124</v>
+        <v>0.7001389349335798</v>
       </c>
       <c r="P9">
-        <v>0.2055085674386124</v>
+        <v>0.6088532438487625</v>
       </c>
       <c r="Q9">
-        <v>0.2177702304157099</v>
+        <v>129.0949335327452</v>
       </c>
       <c r="R9">
-        <v>0.2177702304157099</v>
+        <v>774.569601196471</v>
       </c>
       <c r="S9">
-        <v>0.001324774198333393</v>
+        <v>0.6859210087042678</v>
       </c>
       <c r="T9">
-        <v>0.001324774198333393</v>
+        <v>0.5989603242406656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9663805</v>
+      </c>
+      <c r="H10">
+        <v>1.932761</v>
+      </c>
+      <c r="I10">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J10">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2078313333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.623494</v>
+      </c>
+      <c r="O10">
+        <v>0.08621557350328635</v>
+      </c>
+      <c r="P10">
+        <v>0.112461889302165</v>
+      </c>
+      <c r="Q10">
+        <v>0.2008441478223333</v>
+      </c>
+      <c r="R10">
+        <v>1.205064886934</v>
+      </c>
+      <c r="S10">
+        <v>0.001067146608288078</v>
+      </c>
+      <c r="T10">
+        <v>0.0009318543540749505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.454818246333632</v>
-      </c>
-      <c r="H10">
-        <v>0.454818246333632</v>
-      </c>
-      <c r="I10">
-        <v>0.006446321021283539</v>
-      </c>
-      <c r="J10">
-        <v>0.006446321021283539</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.64563814601145</v>
-      </c>
-      <c r="N10">
-        <v>1.64563814601145</v>
-      </c>
-      <c r="O10">
-        <v>0.7063234845505848</v>
-      </c>
-      <c r="P10">
-        <v>0.7063234845505848</v>
-      </c>
-      <c r="Q10">
-        <v>0.7484662556686571</v>
-      </c>
-      <c r="R10">
-        <v>0.7484662556686571</v>
-      </c>
-      <c r="S10">
-        <v>0.004553187926284673</v>
-      </c>
-      <c r="T10">
-        <v>0.004553187926284673</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9663805</v>
+      </c>
+      <c r="H11">
+        <v>1.932761</v>
+      </c>
+      <c r="I11">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J11">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.498127</v>
+      </c>
+      <c r="N11">
+        <v>1.494381</v>
+      </c>
+      <c r="O11">
+        <v>0.206640184103479</v>
+      </c>
+      <c r="P11">
+        <v>0.2695469573039334</v>
+      </c>
+      <c r="Q11">
+        <v>0.4813802193235</v>
+      </c>
+      <c r="R11">
+        <v>2.888281315941</v>
+      </c>
+      <c r="S11">
+        <v>0.002557720869230734</v>
+      </c>
+      <c r="T11">
+        <v>0.002233454438209316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9663805</v>
+      </c>
+      <c r="H12">
+        <v>1.932761</v>
+      </c>
+      <c r="I12">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J12">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.016887</v>
+      </c>
+      <c r="N12">
+        <v>0.050661</v>
+      </c>
+      <c r="O12">
+        <v>0.007005307459654767</v>
+      </c>
+      <c r="P12">
+        <v>0.009137909545139137</v>
+      </c>
+      <c r="Q12">
+        <v>0.0163192675035</v>
+      </c>
+      <c r="R12">
+        <v>0.097915605021</v>
+      </c>
+      <c r="S12">
+        <v>8.670927759125563E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.571632354407753E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9663805</v>
+      </c>
+      <c r="H13">
+        <v>1.932761</v>
+      </c>
+      <c r="I13">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J13">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.6877555</v>
+      </c>
+      <c r="N13">
+        <v>3.375511</v>
+      </c>
+      <c r="O13">
+        <v>0.7001389349335798</v>
+      </c>
+      <c r="P13">
+        <v>0.6088532438487625</v>
+      </c>
+      <c r="Q13">
+        <v>1.63101400396775</v>
+      </c>
+      <c r="R13">
+        <v>6.524056015871</v>
+      </c>
+      <c r="S13">
+        <v>0.008666078057421003</v>
+      </c>
+      <c r="T13">
+        <v>0.005044931663460902</v>
       </c>
     </row>
   </sheetData>
